--- a/biology/Botanique/Parc_Barton/Parc_Barton.xlsx
+++ b/biology/Botanique/Parc_Barton/Parc_Barton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Barton est un jardin public situé à Genève, en Suisse. 
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie d'une suite de parcs contigus : Parc Mon Repos, Parc Moynier, Perle-du-Lac, Parc Barton, et Parc William Rappard, sur la rive droite du lac Léman, en prolongation du quartier des Pâquis.
 </t>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine, ainsi que la villa rose située au centre, est acquis par Daniel Fitzgerald Pakenham Barton en 1892. Sa veuve, après avoir refusé de vendre le domaine à la Société des Nations installée juste à côté, le lègue à la Confédération à sa mort, avec comme seule condition de laisser le parc dans son état. En 1938, la villa Barton devient le siège de l'Institut des hautes études internationales de l'Université de Genève[1].
-Le parc abrite une trentaine de séquoias géants[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine, ainsi que la villa rose située au centre, est acquis par Daniel Fitzgerald Pakenham Barton en 1892. Sa veuve, après avoir refusé de vendre le domaine à la Société des Nations installée juste à côté, le lègue à la Confédération à sa mort, avec comme seule condition de laisser le parc dans son état. En 1938, la villa Barton devient le siège de l'Institut des hautes études internationales de l'Université de Genève.
+Le parc abrite une trentaine de séquoias géants.
 </t>
         </is>
       </c>
